--- a/Code/Results/Cases/Case_2_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.432110621147217</v>
+        <v>1.613639150473716</v>
       </c>
       <c r="C2">
-        <v>0.5532651982733512</v>
+        <v>0.2138367518421944</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06407941592605404</v>
+        <v>0.1773710331547171</v>
       </c>
       <c r="F2">
-        <v>1.2038058856118</v>
+        <v>2.030069189181162</v>
       </c>
       <c r="G2">
-        <v>0.6895037163589706</v>
+        <v>0.962735258905326</v>
       </c>
       <c r="H2">
-        <v>0.4678096149743567</v>
+        <v>0.9826694022769118</v>
       </c>
       <c r="I2">
-        <v>0.4038740763895063</v>
+        <v>0.925217811486295</v>
       </c>
       <c r="J2">
-        <v>0.03331771671727424</v>
+        <v>0.04640777681273178</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4724684212021089</v>
+        <v>0.5190011523732068</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.980345094702443</v>
+        <v>1.482210005852494</v>
       </c>
       <c r="C3">
-        <v>0.4877645113170104</v>
+        <v>0.1929591715591243</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06262431750356257</v>
+        <v>0.1776150178559455</v>
       </c>
       <c r="F3">
-        <v>1.134118655269205</v>
+        <v>2.031209179659172</v>
       </c>
       <c r="G3">
-        <v>0.6459426299279443</v>
+        <v>0.9644451287904587</v>
       </c>
       <c r="H3">
-        <v>0.4575898577860187</v>
+        <v>0.9901085917916106</v>
       </c>
       <c r="I3">
-        <v>0.4077864615153359</v>
+        <v>0.9370343875054559</v>
       </c>
       <c r="J3">
-        <v>0.03371303239348222</v>
+        <v>0.04658510441611696</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4200995787843596</v>
+        <v>0.5063326831075017</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704362021632846</v>
+        <v>1.401770107735388</v>
       </c>
       <c r="C4">
-        <v>0.4476972617973445</v>
+        <v>0.1800566429994888</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06177568459071381</v>
+        <v>0.1778023963871185</v>
       </c>
       <c r="F4">
-        <v>1.094126062844225</v>
+        <v>2.033210858862077</v>
       </c>
       <c r="G4">
-        <v>0.6216948640116158</v>
+        <v>0.9664006177526971</v>
       </c>
       <c r="H4">
-        <v>0.452721441131672</v>
+        <v>0.9953260563165998</v>
       </c>
       <c r="I4">
-        <v>0.411765102313538</v>
+        <v>0.9449859340126494</v>
       </c>
       <c r="J4">
-        <v>0.03400034416499054</v>
+        <v>0.04671323602662625</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3882613766129737</v>
+        <v>0.4987214761434302</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.592181867790032</v>
+        <v>1.369056507789821</v>
       </c>
       <c r="C5">
-        <v>0.4313955359947101</v>
+        <v>0.1747777585060533</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06144078383497309</v>
+        <v>0.1778882320456585</v>
       </c>
       <c r="F5">
-        <v>1.078486920107025</v>
+        <v>2.034353476638131</v>
       </c>
       <c r="G5">
-        <v>0.612396451751323</v>
+        <v>0.9674243269584792</v>
       </c>
       <c r="H5">
-        <v>0.4510703131946059</v>
+        <v>0.997615325319785</v>
       </c>
       <c r="I5">
-        <v>0.4137606951412458</v>
+        <v>0.9484008949082003</v>
       </c>
       <c r="J5">
-        <v>0.03412820435941377</v>
+        <v>0.04677030440794461</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3753583011025796</v>
+        <v>0.4956621334130631</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.573569782066727</v>
+        <v>1.363628486434493</v>
       </c>
       <c r="C6">
-        <v>0.4286898884823813</v>
+        <v>0.1738999362830782</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06138582405437631</v>
+        <v>0.1779030582831727</v>
       </c>
       <c r="F6">
-        <v>1.075928545679631</v>
+        <v>2.034562940461711</v>
       </c>
       <c r="G6">
-        <v>0.610886375688068</v>
+        <v>0.967607986974258</v>
       </c>
       <c r="H6">
-        <v>0.4508156589513703</v>
+        <v>0.9980052999259783</v>
       </c>
       <c r="I6">
-        <v>0.4141140454803605</v>
+        <v>0.9489784826212819</v>
       </c>
       <c r="J6">
-        <v>0.03415007454618824</v>
+        <v>0.04678007410284479</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3732198258408914</v>
+        <v>0.4951566924101485</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.70284805185031</v>
+        <v>1.401328650313076</v>
       </c>
       <c r="C7">
-        <v>0.4474773207236638</v>
+        <v>0.1799855351047199</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06177112420561848</v>
+        <v>0.1778035155828643</v>
       </c>
       <c r="F7">
-        <v>1.093912540240169</v>
+        <v>2.033224945480882</v>
       </c>
       <c r="G7">
-        <v>0.6215671610027727</v>
+        <v>0.9664135066112749</v>
       </c>
       <c r="H7">
-        <v>0.4526978526175327</v>
+        <v>0.9953562701518024</v>
       </c>
       <c r="I7">
-        <v>0.4117905284358834</v>
+        <v>0.9450312827960126</v>
       </c>
       <c r="J7">
-        <v>0.03400202543357089</v>
+        <v>0.04671398600146048</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3880870833327066</v>
+        <v>0.4986800452669087</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.276008374877108</v>
+        <v>1.568269598452105</v>
       </c>
       <c r="C8">
-        <v>0.5306419218316023</v>
+        <v>0.2066555234208067</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06356818501705419</v>
+        <v>0.1774473789635351</v>
       </c>
       <c r="F8">
-        <v>1.179169608897766</v>
+        <v>2.030191832547573</v>
       </c>
       <c r="G8">
-        <v>0.6739367941742387</v>
+        <v>0.9631363193425955</v>
       </c>
       <c r="H8">
-        <v>0.4639808985867546</v>
+        <v>0.9850994048354664</v>
       </c>
       <c r="I8">
-        <v>0.4048821106708864</v>
+        <v>0.9291474443005221</v>
       </c>
       <c r="J8">
-        <v>0.03344449359870438</v>
+        <v>0.04646493109883565</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4543407501089121</v>
+        <v>0.51459847116503</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.414469143184135</v>
+        <v>1.897644961528897</v>
       </c>
       <c r="C9">
-        <v>0.6955101105335189</v>
+        <v>0.2582933738855218</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06746467210686546</v>
+        <v>0.1770458553141605</v>
       </c>
       <c r="F9">
-        <v>1.370721658132396</v>
+        <v>2.03459381513062</v>
       </c>
       <c r="G9">
-        <v>0.798684853681479</v>
+        <v>0.9639371361734845</v>
       </c>
       <c r="H9">
-        <v>0.4982856492774062</v>
+        <v>0.9701545355965777</v>
       </c>
       <c r="I9">
-        <v>0.4049177835277789</v>
+        <v>0.90354086918353</v>
       </c>
       <c r="J9">
-        <v>0.0327268439148547</v>
+        <v>0.04612877719786823</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5871875685642891</v>
+        <v>0.5471341624105293</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.264925846994743</v>
+        <v>2.140827595198857</v>
       </c>
       <c r="C10">
-        <v>0.8186365446283048</v>
+        <v>0.2958340209530377</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07058054834774019</v>
+        <v>0.1769302421803474</v>
       </c>
       <c r="F10">
-        <v>1.529605856853706</v>
+        <v>2.044171136420744</v>
       </c>
       <c r="G10">
-        <v>0.9071526409970829</v>
+        <v>0.9689910868529665</v>
       </c>
       <c r="H10">
-        <v>0.5324582054821576</v>
+        <v>0.9623445442376521</v>
       </c>
       <c r="I10">
-        <v>0.4148487610216307</v>
+        <v>0.888131104920248</v>
       </c>
       <c r="J10">
-        <v>0.03246308262367137</v>
+        <v>0.04597399543991898</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6872050397873153</v>
+        <v>0.5718354991007857</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.656159558885179</v>
+        <v>2.251711628696455</v>
       </c>
       <c r="C11">
-        <v>0.8753122808759599</v>
+        <v>0.3128274162958462</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07205946854796785</v>
+        <v>0.1769162716173707</v>
       </c>
       <c r="F11">
-        <v>1.606639474799266</v>
+        <v>2.049912997169926</v>
       </c>
       <c r="G11">
-        <v>0.9609840030308732</v>
+        <v>0.9722728737370545</v>
       </c>
       <c r="H11">
-        <v>0.5503344522855826</v>
+        <v>0.9594840725986273</v>
       </c>
       <c r="I11">
-        <v>0.4219187110154508</v>
+        <v>0.8818652383911214</v>
       </c>
       <c r="J11">
-        <v>0.03240926223756091</v>
+        <v>0.04592348053428452</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7333861782213944</v>
+        <v>0.583244637549484</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.805054742275161</v>
+        <v>2.293736860309878</v>
       </c>
       <c r="C12">
-        <v>0.8968907455864041</v>
+        <v>0.3192503368308905</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07262893246395308</v>
+        <v>0.1769165070401044</v>
       </c>
       <c r="F12">
-        <v>1.63656903186687</v>
+        <v>2.052287004846278</v>
       </c>
       <c r="G12">
-        <v>0.9820917745648785</v>
+        <v>0.9736579307437552</v>
       </c>
       <c r="H12">
-        <v>0.5574745895997637</v>
+        <v>0.9585007761562139</v>
       </c>
       <c r="I12">
-        <v>0.4250003247197967</v>
+        <v>0.8795999724187595</v>
       </c>
       <c r="J12">
-        <v>0.03239926295919915</v>
+        <v>0.0459072032291381</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.750986193888366</v>
+        <v>0.5875896021791505</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.772952443026952</v>
+        <v>2.284684401988102</v>
       </c>
       <c r="C13">
-        <v>0.8922378928603791</v>
+        <v>0.3178675849135288</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07250585889722494</v>
+        <v>0.1769162110225952</v>
       </c>
       <c r="F13">
-        <v>1.630088160596614</v>
+        <v>2.051766830339545</v>
       </c>
       <c r="G13">
-        <v>0.9775123627844238</v>
+        <v>0.9733532884495162</v>
       </c>
       <c r="H13">
-        <v>0.5559197360407069</v>
+        <v>0.9587080979473086</v>
       </c>
       <c r="I13">
-        <v>0.4243180238440374</v>
+        <v>0.8800830500566903</v>
       </c>
       <c r="J13">
-        <v>0.032400939762951</v>
+        <v>0.04591058215798682</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7471904861580185</v>
+        <v>0.5866527468876654</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.668393642233241</v>
+        <v>2.255168359093148</v>
       </c>
       <c r="C14">
-        <v>0.877085089093157</v>
+        <v>0.3133560766579535</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07210612614870371</v>
+        <v>0.1769161804010828</v>
       </c>
       <c r="F14">
-        <v>1.609086140529925</v>
+        <v>2.050104303174535</v>
       </c>
       <c r="G14">
-        <v>0.9627055896830541</v>
+        <v>0.9723839652535418</v>
       </c>
       <c r="H14">
-        <v>0.5509142275119245</v>
+        <v>0.9594011720381985</v>
       </c>
       <c r="I14">
-        <v>0.4221639054583051</v>
+        <v>0.8816767167548321</v>
       </c>
       <c r="J14">
-        <v>0.03240822616889361</v>
+        <v>0.04592208429278344</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7348318076799387</v>
+        <v>0.5836016091814429</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.604448854718669</v>
+        <v>2.237093559027073</v>
       </c>
       <c r="C15">
-        <v>0.8678194048099215</v>
+        <v>0.3105910698784555</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07186252462525822</v>
+        <v>0.1769168804334438</v>
       </c>
       <c r="F15">
-        <v>1.596322927723733</v>
+        <v>2.049111978091148</v>
       </c>
       <c r="G15">
-        <v>0.9537326056822621</v>
+        <v>0.9718087902397485</v>
       </c>
       <c r="H15">
-        <v>0.547897615707285</v>
+        <v>0.9598387204093086</v>
       </c>
       <c r="I15">
-        <v>0.420898280542751</v>
+        <v>0.8826668951516581</v>
       </c>
       <c r="J15">
-        <v>0.0324140688912955</v>
+        <v>0.04592950077266167</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7272768149425559</v>
+        <v>0.5817358928137963</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.239455204056014</v>
+        <v>2.133586155399939</v>
       </c>
       <c r="C16">
-        <v>0.8149477740024054</v>
+        <v>0.2947217693662765</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07048518363580314</v>
+        <v>0.1769319299656456</v>
       </c>
       <c r="F16">
-        <v>1.524673457046276</v>
+        <v>2.043823807881822</v>
       </c>
       <c r="G16">
-        <v>0.9037314108269925</v>
+        <v>0.9687964747897837</v>
       </c>
       <c r="H16">
-        <v>0.531339817529016</v>
+        <v>0.9625454437893382</v>
       </c>
       <c r="I16">
-        <v>0.4144411915563069</v>
+        <v>0.8885556084231609</v>
       </c>
       <c r="J16">
-        <v>0.03246800294046182</v>
+        <v>0.04597769624987791</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.68420190187733</v>
+        <v>0.5710933351914065</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.016738853308311</v>
+        <v>2.070153059200322</v>
       </c>
       <c r="C17">
-        <v>0.7826972700560475</v>
+        <v>0.2849649251897972</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06965637855877382</v>
+        <v>0.1769510344441461</v>
       </c>
       <c r="F17">
-        <v>1.481987939111477</v>
+        <v>2.040934807577059</v>
       </c>
       <c r="G17">
-        <v>0.8742597313993059</v>
+        <v>0.9672009271972968</v>
       </c>
       <c r="H17">
-        <v>0.5218033807752107</v>
+        <v>0.9643834992625671</v>
       </c>
       <c r="I17">
-        <v>0.4111591170687845</v>
+        <v>0.8923590690067726</v>
       </c>
       <c r="J17">
-        <v>0.03251861913724596</v>
+        <v>0.04601235160575357</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6579612717298176</v>
+        <v>0.5646084658849873</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.88904069959915</v>
+        <v>2.03369248291898</v>
       </c>
       <c r="C18">
-        <v>0.7642088340971895</v>
+        <v>0.2793451381574812</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06918542138663497</v>
+        <v>0.1769656598272302</v>
       </c>
       <c r="F18">
-        <v>1.457879181207062</v>
+        <v>2.039403471298215</v>
       </c>
       <c r="G18">
-        <v>0.8577258310289579</v>
+        <v>0.9663756487050108</v>
       </c>
       <c r="H18">
-        <v>0.5165353442749705</v>
+        <v>0.9655058450556879</v>
       </c>
       <c r="I18">
-        <v>0.4095091443162815</v>
+        <v>0.8946167296470122</v>
       </c>
       <c r="J18">
-        <v>0.03255390203242925</v>
+        <v>0.04603415769750541</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6429316957386249</v>
+        <v>0.5608947781926332</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.845870036898987</v>
+        <v>2.021351802770141</v>
       </c>
       <c r="C19">
-        <v>0.7579588755718589</v>
+        <v>0.2774410174098989</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0690269339394618</v>
+        <v>0.1769712372467342</v>
       </c>
       <c r="F19">
-        <v>1.449790266439038</v>
+        <v>2.038907357521438</v>
       </c>
       <c r="G19">
-        <v>0.8521971939569966</v>
+        <v>0.9661120694385943</v>
       </c>
       <c r="H19">
-        <v>0.514787932651231</v>
+        <v>0.9658970302440082</v>
       </c>
       <c r="I19">
-        <v>0.408990253681317</v>
+        <v>0.8953931445598258</v>
       </c>
       <c r="J19">
-        <v>0.03256688323903845</v>
+        <v>0.04604186289373402</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.637853411821439</v>
+        <v>0.5596401828076267</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.040404932130912</v>
+        <v>2.076903098950652</v>
       </c>
       <c r="C20">
-        <v>0.7861239123549808</v>
+        <v>0.286004376579541</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06974400714941709</v>
+        <v>0.1769486245288263</v>
       </c>
       <c r="F20">
-        <v>1.486485536977</v>
+        <v>2.041228853165947</v>
       </c>
       <c r="G20">
-        <v>0.8773533028032148</v>
+        <v>0.9673612017184325</v>
       </c>
       <c r="H20">
-        <v>0.5227958384006399</v>
+        <v>0.9641810903911789</v>
       </c>
       <c r="I20">
-        <v>0.4114836303021363</v>
+        <v>0.8919469348430766</v>
       </c>
       <c r="J20">
-        <v>0.03251258647634359</v>
+        <v>0.04600846868068587</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6607479785911039</v>
+        <v>0.5652971123344344</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.699083927173945</v>
+        <v>2.263836974248363</v>
       </c>
       <c r="C21">
-        <v>0.881532491942238</v>
+        <v>0.3146815448261577</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07222327648236515</v>
+        <v>0.1769160396503242</v>
       </c>
       <c r="F21">
-        <v>1.615233723716656</v>
+        <v>2.050587204067412</v>
       </c>
       <c r="G21">
-        <v>0.9670344184647064</v>
+        <v>0.9726648085808165</v>
       </c>
       <c r="H21">
-        <v>0.5523741016265831</v>
+        <v>0.9591948853022814</v>
       </c>
       <c r="I21">
-        <v>0.4227853310588969</v>
+        <v>0.8812056973676903</v>
       </c>
       <c r="J21">
-        <v>0.03240579676294431</v>
+        <v>0.04591862851837902</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7384586867189995</v>
+        <v>0.5844971371293894</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.133965402408307</v>
+        <v>2.386217430471561</v>
       </c>
       <c r="C22">
-        <v>0.9445785528338888</v>
+        <v>0.3333531395073805</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07389889712166919</v>
+        <v>0.1769269390952601</v>
       </c>
       <c r="F22">
-        <v>1.703839853688322</v>
+        <v>2.057867611770433</v>
       </c>
       <c r="G22">
-        <v>1.029902319692837</v>
+        <v>0.9769610118711256</v>
       </c>
       <c r="H22">
-        <v>0.573885706499965</v>
+        <v>0.9565185792592814</v>
       </c>
       <c r="I22">
-        <v>0.4325488120458516</v>
+        <v>0.8748123864444963</v>
       </c>
       <c r="J22">
-        <v>0.03239699983727107</v>
+        <v>0.04587653001545533</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7899087671815437</v>
+        <v>0.5971885867313063</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.901416829028449</v>
+        <v>2.320882065480248</v>
       </c>
       <c r="C23">
-        <v>0.9108589080495051</v>
+        <v>0.3233942247366315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07299931975722629</v>
+        <v>0.1769181851847126</v>
       </c>
       <c r="F23">
-        <v>1.656114235448456</v>
+        <v>2.053875227464061</v>
       </c>
       <c r="G23">
-        <v>0.9959313649447381</v>
+        <v>0.9745917719376109</v>
       </c>
       <c r="H23">
-        <v>0.5621923001290696</v>
+        <v>0.9578935638388657</v>
       </c>
       <c r="I23">
-        <v>0.4271069943268486</v>
+        <v>0.8781671143268639</v>
       </c>
       <c r="J23">
-        <v>0.03239579732027664</v>
+        <v>0.04589748129232518</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7623833443618366</v>
+        <v>0.5904018959955977</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.029704433725783</v>
+        <v>2.073851381094698</v>
       </c>
       <c r="C24">
-        <v>0.784574564442579</v>
+        <v>0.2855344731488003</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06970437307027666</v>
+        <v>0.1769497027057607</v>
       </c>
       <c r="F24">
-        <v>1.484450833838736</v>
+        <v>2.041095511541599</v>
       </c>
       <c r="G24">
-        <v>0.8759534286200079</v>
+        <v>0.9672884550422651</v>
       </c>
       <c r="H24">
-        <v>0.5223464825603656</v>
+        <v>0.9642723950564118</v>
       </c>
       <c r="I24">
-        <v>0.4113361826458473</v>
+        <v>0.8921330395747304</v>
       </c>
       <c r="J24">
-        <v>0.03251529464787239</v>
+        <v>0.04601021828695906</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6594879334425343</v>
+        <v>0.5649857299391812</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.104426063427297</v>
+        <v>1.808328960936592</v>
       </c>
       <c r="C25">
-        <v>0.6506293026003789</v>
+        <v>0.2443942400878996</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0663681431863008</v>
+        <v>0.1771228621508669</v>
       </c>
       <c r="F25">
-        <v>1.315969839564005</v>
+        <v>2.032291465139394</v>
       </c>
       <c r="G25">
-        <v>0.7622463964658408</v>
+        <v>0.9629405974258418</v>
       </c>
       <c r="H25">
-        <v>0.4875503827925627</v>
+        <v>0.9736422070600526</v>
       </c>
       <c r="I25">
-        <v>0.4032948956888873</v>
+        <v>0.9098722713168783</v>
       </c>
       <c r="J25">
-        <v>0.03287746222366295</v>
+        <v>0.04620348317339662</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5508739762695853</v>
+        <v>0.5381918644929584</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.613639150473716</v>
+        <v>3.43211062114716</v>
       </c>
       <c r="C2">
-        <v>0.2138367518421944</v>
+        <v>0.5532651982730954</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1773710331547171</v>
+        <v>0.06407941592604161</v>
       </c>
       <c r="F2">
-        <v>2.030069189181162</v>
+        <v>1.203805885611828</v>
       </c>
       <c r="G2">
-        <v>0.962735258905326</v>
+        <v>0.6895037163590416</v>
       </c>
       <c r="H2">
-        <v>0.9826694022769118</v>
+        <v>0.4678096149744704</v>
       </c>
       <c r="I2">
-        <v>0.925217811486295</v>
+        <v>0.4038740763895063</v>
       </c>
       <c r="J2">
-        <v>0.04640777681273178</v>
+        <v>0.03331771671726003</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5190011523732068</v>
+        <v>0.4724684212020236</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.482210005852494</v>
+        <v>2.9803450947025</v>
       </c>
       <c r="C3">
-        <v>0.1929591715591243</v>
+        <v>0.4877645113168967</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1776150178559455</v>
+        <v>0.06262431750357145</v>
       </c>
       <c r="F3">
-        <v>2.031209179659172</v>
+        <v>1.134118655269205</v>
       </c>
       <c r="G3">
-        <v>0.9644451287904587</v>
+        <v>0.6459426299279016</v>
       </c>
       <c r="H3">
-        <v>0.9901085917916106</v>
+        <v>0.4575898577860045</v>
       </c>
       <c r="I3">
-        <v>0.9370343875054559</v>
+        <v>0.4077864615153288</v>
       </c>
       <c r="J3">
-        <v>0.04658510441611696</v>
+        <v>0.03371303239345735</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5063326831075017</v>
+        <v>0.4200995787844874</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.401770107735388</v>
+        <v>2.704362021632903</v>
       </c>
       <c r="C4">
-        <v>0.1800566429994888</v>
+        <v>0.4476972617974866</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1778023963871185</v>
+        <v>0.06177568459071558</v>
       </c>
       <c r="F4">
-        <v>2.033210858862077</v>
+        <v>1.094126062844225</v>
       </c>
       <c r="G4">
-        <v>0.9664006177526971</v>
+        <v>0.62169486401163</v>
       </c>
       <c r="H4">
-        <v>0.9953260563165998</v>
+        <v>0.4527214411316862</v>
       </c>
       <c r="I4">
-        <v>0.9449859340126494</v>
+        <v>0.4117651023135487</v>
       </c>
       <c r="J4">
-        <v>0.04671323602662625</v>
+        <v>0.0340003441649781</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4987214761434302</v>
+        <v>0.3882613766129026</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.369056507789821</v>
+        <v>2.592181867790032</v>
       </c>
       <c r="C5">
-        <v>0.1747777585060533</v>
+        <v>0.4313955359945965</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1778882320456585</v>
+        <v>0.06144078383497131</v>
       </c>
       <c r="F5">
-        <v>2.034353476638131</v>
+        <v>1.078486920107039</v>
       </c>
       <c r="G5">
-        <v>0.9674243269584792</v>
+        <v>0.6123964517513087</v>
       </c>
       <c r="H5">
-        <v>0.997615325319785</v>
+        <v>0.4510703131944922</v>
       </c>
       <c r="I5">
-        <v>0.9484008949082003</v>
+        <v>0.4137606951412529</v>
       </c>
       <c r="J5">
-        <v>0.04677030440794461</v>
+        <v>0.03412820435938713</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4956621334130631</v>
+        <v>0.3753583011025228</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.363628486434493</v>
+        <v>2.573569782066784</v>
       </c>
       <c r="C6">
-        <v>0.1738999362830782</v>
+        <v>0.4286898884823813</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1779030582831727</v>
+        <v>0.06138582405436388</v>
       </c>
       <c r="F6">
-        <v>2.034562940461711</v>
+        <v>1.075928545679616</v>
       </c>
       <c r="G6">
-        <v>0.967607986974258</v>
+        <v>0.610886375688068</v>
       </c>
       <c r="H6">
-        <v>0.9980052999259783</v>
+        <v>0.4508156589513561</v>
       </c>
       <c r="I6">
-        <v>0.9489784826212819</v>
+        <v>0.4141140454803462</v>
       </c>
       <c r="J6">
-        <v>0.04678007410284479</v>
+        <v>0.03415007454620955</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4951566924101485</v>
+        <v>0.3732198258409198</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.401328650313076</v>
+        <v>2.70284805185031</v>
       </c>
       <c r="C7">
-        <v>0.1799855351047199</v>
+        <v>0.4474773207238343</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1778035155828643</v>
+        <v>0.06177112420559894</v>
       </c>
       <c r="F7">
-        <v>2.033224945480882</v>
+        <v>1.093912540240154</v>
       </c>
       <c r="G7">
-        <v>0.9664135066112749</v>
+        <v>0.6215671610027158</v>
       </c>
       <c r="H7">
-        <v>0.9953562701518024</v>
+        <v>0.4526978526175327</v>
       </c>
       <c r="I7">
-        <v>0.9450312827960126</v>
+        <v>0.4117905284358869</v>
       </c>
       <c r="J7">
-        <v>0.04671398600146048</v>
+        <v>0.0340020254336153</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4986800452669087</v>
+        <v>0.388087083332735</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.568269598452105</v>
+        <v>3.276008374876938</v>
       </c>
       <c r="C8">
-        <v>0.2066555234208067</v>
+        <v>0.5306419218313465</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1774473789635351</v>
+        <v>0.06356818501706663</v>
       </c>
       <c r="F8">
-        <v>2.030191832547573</v>
+        <v>1.179169608897794</v>
       </c>
       <c r="G8">
-        <v>0.9631363193425955</v>
+        <v>0.6739367941742813</v>
       </c>
       <c r="H8">
-        <v>0.9850994048354664</v>
+        <v>0.4639808985867688</v>
       </c>
       <c r="I8">
-        <v>0.9291474443005221</v>
+        <v>0.4048821106708935</v>
       </c>
       <c r="J8">
-        <v>0.04646493109883565</v>
+        <v>0.03344449359865465</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.51459847116503</v>
+        <v>0.4543407501089263</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.897644961528897</v>
+        <v>4.414469143184078</v>
       </c>
       <c r="C9">
-        <v>0.2582933738855218</v>
+        <v>0.695510110533462</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1770458553141605</v>
+        <v>0.06746467210684415</v>
       </c>
       <c r="F9">
-        <v>2.03459381513062</v>
+        <v>1.370721658132396</v>
       </c>
       <c r="G9">
-        <v>0.9639371361734845</v>
+        <v>0.7986848536815643</v>
       </c>
       <c r="H9">
-        <v>0.9701545355965777</v>
+        <v>0.4982856492775198</v>
       </c>
       <c r="I9">
-        <v>0.90354086918353</v>
+        <v>0.4049177835277931</v>
       </c>
       <c r="J9">
-        <v>0.04612877719786823</v>
+        <v>0.03272684391489022</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5471341624105293</v>
+        <v>0.5871875685642749</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.140827595198857</v>
+        <v>5.264925846994913</v>
       </c>
       <c r="C10">
-        <v>0.2958340209530377</v>
+        <v>0.8186365446283901</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1769302421803474</v>
+        <v>0.0705805483477544</v>
       </c>
       <c r="F10">
-        <v>2.044171136420744</v>
+        <v>1.529605856853706</v>
       </c>
       <c r="G10">
-        <v>0.9689910868529665</v>
+        <v>0.9071526409970971</v>
       </c>
       <c r="H10">
-        <v>0.9623445442376521</v>
+        <v>0.5324582054821576</v>
       </c>
       <c r="I10">
-        <v>0.888131104920248</v>
+        <v>0.4148487610216378</v>
       </c>
       <c r="J10">
-        <v>0.04597399543991898</v>
+        <v>0.032463082623714</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5718354991007857</v>
+        <v>0.6872050397872016</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.251711628696455</v>
+        <v>5.656159558885122</v>
       </c>
       <c r="C11">
-        <v>0.3128274162958462</v>
+        <v>0.8753122808761873</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1769162716173707</v>
+        <v>0.07205946854796785</v>
       </c>
       <c r="F11">
-        <v>2.049912997169926</v>
+        <v>1.60663947479928</v>
       </c>
       <c r="G11">
-        <v>0.9722728737370545</v>
+        <v>0.9609840030308732</v>
       </c>
       <c r="H11">
-        <v>0.9594840725986273</v>
+        <v>0.5503344522855826</v>
       </c>
       <c r="I11">
-        <v>0.8818652383911214</v>
+        <v>0.4219187110154436</v>
       </c>
       <c r="J11">
-        <v>0.04592348053428452</v>
+        <v>0.03240926223761775</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.583244637549484</v>
+        <v>0.7333861782213944</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.293736860309878</v>
+        <v>5.805054742275217</v>
       </c>
       <c r="C12">
-        <v>0.3192503368308905</v>
+        <v>0.8968907455863473</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1769165070401044</v>
+        <v>0.07262893246393176</v>
       </c>
       <c r="F12">
-        <v>2.052287004846278</v>
+        <v>1.63656903186687</v>
       </c>
       <c r="G12">
-        <v>0.9736579307437552</v>
+        <v>0.9820917745648927</v>
       </c>
       <c r="H12">
-        <v>0.9585007761562139</v>
+        <v>0.5574745895998774</v>
       </c>
       <c r="I12">
-        <v>0.8795999724187595</v>
+        <v>0.4250003247198038</v>
       </c>
       <c r="J12">
-        <v>0.0459072032291381</v>
+        <v>0.03239926295929507</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5875896021791505</v>
+        <v>0.7509861938883375</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.284684401988102</v>
+        <v>5.772952443027009</v>
       </c>
       <c r="C13">
-        <v>0.3178675849135288</v>
+        <v>0.8922378928602654</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1769162110225952</v>
+        <v>0.07250585889721073</v>
       </c>
       <c r="F13">
-        <v>2.051766830339545</v>
+        <v>1.6300881605966</v>
       </c>
       <c r="G13">
-        <v>0.9733532884495162</v>
+        <v>0.977512362784438</v>
       </c>
       <c r="H13">
-        <v>0.9587080979473086</v>
+        <v>0.5559197360407069</v>
       </c>
       <c r="I13">
-        <v>0.8800830500566903</v>
+        <v>0.4243180238440445</v>
       </c>
       <c r="J13">
-        <v>0.04591058215798682</v>
+        <v>0.03240093976288705</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5866527468876654</v>
+        <v>0.7471904861580327</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.255168359093148</v>
+        <v>5.66839364223307</v>
       </c>
       <c r="C14">
-        <v>0.3133560766579535</v>
+        <v>0.8770850890929864</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1769161804010828</v>
+        <v>0.07210612614867884</v>
       </c>
       <c r="F14">
-        <v>2.050104303174535</v>
+        <v>1.609086140529911</v>
       </c>
       <c r="G14">
-        <v>0.9723839652535418</v>
+        <v>0.9627055896831251</v>
       </c>
       <c r="H14">
-        <v>0.9594011720381985</v>
+        <v>0.5509142275120809</v>
       </c>
       <c r="I14">
-        <v>0.8816767167548321</v>
+        <v>0.4221639054583051</v>
       </c>
       <c r="J14">
-        <v>0.04592208429278344</v>
+        <v>0.03240822616892203</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5836016091814429</v>
+        <v>0.7348318076800098</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.237093559027073</v>
+        <v>5.604448854718669</v>
       </c>
       <c r="C15">
-        <v>0.3105910698784555</v>
+        <v>0.8678194048096941</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1769168804334438</v>
+        <v>0.07186252462525466</v>
       </c>
       <c r="F15">
-        <v>2.049111978091148</v>
+        <v>1.596322927723747</v>
       </c>
       <c r="G15">
-        <v>0.9718087902397485</v>
+        <v>0.9537326056823332</v>
       </c>
       <c r="H15">
-        <v>0.9598387204093086</v>
+        <v>0.5478976157071855</v>
       </c>
       <c r="I15">
-        <v>0.8826668951516581</v>
+        <v>0.420898280542751</v>
       </c>
       <c r="J15">
-        <v>0.04592950077266167</v>
+        <v>0.03241406889133458</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5817358928137963</v>
+        <v>0.7272768149425559</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.133586155399939</v>
+        <v>5.239455204055957</v>
       </c>
       <c r="C16">
-        <v>0.2947217693662765</v>
+        <v>0.8149477740023201</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1769319299656456</v>
+        <v>0.07048518363578005</v>
       </c>
       <c r="F16">
-        <v>2.043823807881822</v>
+        <v>1.524673457046262</v>
       </c>
       <c r="G16">
-        <v>0.9687964747897837</v>
+        <v>0.9037314108269783</v>
       </c>
       <c r="H16">
-        <v>0.9625454437893382</v>
+        <v>0.5313398175290018</v>
       </c>
       <c r="I16">
-        <v>0.8885556084231609</v>
+        <v>0.4144411915562998</v>
       </c>
       <c r="J16">
-        <v>0.04597769624987791</v>
+        <v>0.0324680029403801</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5710933351914065</v>
+        <v>0.6842019018774437</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.070153059200322</v>
+        <v>5.016738853308425</v>
       </c>
       <c r="C17">
-        <v>0.2849649251897972</v>
+        <v>0.7826972700559338</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1769510344441461</v>
+        <v>0.0696563785587756</v>
       </c>
       <c r="F17">
-        <v>2.040934807577059</v>
+        <v>1.481987939111477</v>
       </c>
       <c r="G17">
-        <v>0.9672009271972968</v>
+        <v>0.8742597313993059</v>
       </c>
       <c r="H17">
-        <v>0.9643834992625671</v>
+        <v>0.5218033807752107</v>
       </c>
       <c r="I17">
-        <v>0.8923590690067726</v>
+        <v>0.4111591170687703</v>
       </c>
       <c r="J17">
-        <v>0.04601235160575357</v>
+        <v>0.03251861913725662</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5646084658849873</v>
+        <v>0.6579612717298886</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.03369248291898</v>
+        <v>4.889040699599036</v>
       </c>
       <c r="C18">
-        <v>0.2793451381574812</v>
+        <v>0.7642088340971043</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1769656598272302</v>
+        <v>0.06918542138665096</v>
       </c>
       <c r="F18">
-        <v>2.039403471298215</v>
+        <v>1.457879181207062</v>
       </c>
       <c r="G18">
-        <v>0.9663756487050108</v>
+        <v>0.857725831029029</v>
       </c>
       <c r="H18">
-        <v>0.9655058450556879</v>
+        <v>0.5165353442748284</v>
       </c>
       <c r="I18">
-        <v>0.8946167296470122</v>
+        <v>0.4095091443162602</v>
       </c>
       <c r="J18">
-        <v>0.04603415769750541</v>
+        <v>0.03255390203245412</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5608947781926332</v>
+        <v>0.6429316957385964</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.021351802770141</v>
+        <v>4.845870036898816</v>
       </c>
       <c r="C19">
-        <v>0.2774410174098989</v>
+        <v>0.75795887557166</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1769712372467342</v>
+        <v>0.0690269339394618</v>
       </c>
       <c r="F19">
-        <v>2.038907357521438</v>
+        <v>1.449790266439066</v>
       </c>
       <c r="G19">
-        <v>0.9661120694385943</v>
+        <v>0.8521971939570818</v>
       </c>
       <c r="H19">
-        <v>0.9658970302440082</v>
+        <v>0.514787932651231</v>
       </c>
       <c r="I19">
-        <v>0.8953931445598258</v>
+        <v>0.4089902536813028</v>
       </c>
       <c r="J19">
-        <v>0.04604186289373402</v>
+        <v>0.0325668832390491</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5596401828076267</v>
+        <v>0.63785341182151</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.076903098950652</v>
+        <v>5.040404932131025</v>
       </c>
       <c r="C20">
-        <v>0.286004376579541</v>
+        <v>0.786123912354924</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1769486245288263</v>
+        <v>0.06974400714944551</v>
       </c>
       <c r="F20">
-        <v>2.041228853165947</v>
+        <v>1.486485536976986</v>
       </c>
       <c r="G20">
-        <v>0.9673612017184325</v>
+        <v>0.8773533028031437</v>
       </c>
       <c r="H20">
-        <v>0.9641810903911789</v>
+        <v>0.5227958384006399</v>
       </c>
       <c r="I20">
-        <v>0.8919469348430766</v>
+        <v>0.4114836303021292</v>
       </c>
       <c r="J20">
-        <v>0.04600846868068587</v>
+        <v>0.03251258647634714</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5652971123344344</v>
+        <v>0.6607479785910755</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.263836974248363</v>
+        <v>5.699083927173945</v>
       </c>
       <c r="C21">
-        <v>0.3146815448261577</v>
+        <v>0.881532491941897</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1769160396503242</v>
+        <v>0.07222327648241667</v>
       </c>
       <c r="F21">
-        <v>2.050587204067412</v>
+        <v>1.615233723716656</v>
       </c>
       <c r="G21">
-        <v>0.9726648085808165</v>
+        <v>0.967034418464678</v>
       </c>
       <c r="H21">
-        <v>0.9591948853022814</v>
+        <v>0.5523741016265973</v>
       </c>
       <c r="I21">
-        <v>0.8812056973676903</v>
+        <v>0.4227853310588827</v>
       </c>
       <c r="J21">
-        <v>0.04591862851837902</v>
+        <v>0.03240579676304023</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5844971371293894</v>
+        <v>0.7384586867190279</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.386217430471561</v>
+        <v>6.133965402408251</v>
       </c>
       <c r="C22">
-        <v>0.3333531395073805</v>
+        <v>0.944578552833633</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1769269390952601</v>
+        <v>0.07389889712167808</v>
       </c>
       <c r="F22">
-        <v>2.057867611770433</v>
+        <v>1.703839853688322</v>
       </c>
       <c r="G22">
-        <v>0.9769610118711256</v>
+        <v>1.029902319692894</v>
       </c>
       <c r="H22">
-        <v>0.9565185792592814</v>
+        <v>0.5738857065000786</v>
       </c>
       <c r="I22">
-        <v>0.8748123864444963</v>
+        <v>0.4325488120458729</v>
       </c>
       <c r="J22">
-        <v>0.04587653001545533</v>
+        <v>0.03239699983731725</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5971885867313063</v>
+        <v>0.7899087671815721</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.320882065480248</v>
+        <v>5.901416829028506</v>
       </c>
       <c r="C23">
-        <v>0.3233942247366315</v>
+        <v>0.9108589080495619</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1769181851847126</v>
+        <v>0.07299931975722274</v>
       </c>
       <c r="F23">
-        <v>2.053875227464061</v>
+        <v>1.656114235448442</v>
       </c>
       <c r="G23">
-        <v>0.9745917719376109</v>
+        <v>0.9959313649447807</v>
       </c>
       <c r="H23">
-        <v>0.9578935638388657</v>
+        <v>0.5621923001291691</v>
       </c>
       <c r="I23">
-        <v>0.8781671143268639</v>
+        <v>0.4271069943268841</v>
       </c>
       <c r="J23">
-        <v>0.04589748129232518</v>
+        <v>0.03239579732026598</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5904018959955977</v>
+        <v>0.7623833443618082</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.073851381094698</v>
+        <v>5.029704433725726</v>
       </c>
       <c r="C24">
-        <v>0.2855344731488003</v>
+        <v>0.7845745644421243</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1769497027057607</v>
+        <v>0.06970437307025712</v>
       </c>
       <c r="F24">
-        <v>2.041095511541599</v>
+        <v>1.484450833838736</v>
       </c>
       <c r="G24">
-        <v>0.9672884550422651</v>
+        <v>0.8759534286199511</v>
       </c>
       <c r="H24">
-        <v>0.9642723950564118</v>
+        <v>0.5223464825603656</v>
       </c>
       <c r="I24">
-        <v>0.8921330395747304</v>
+        <v>0.411336182645833</v>
       </c>
       <c r="J24">
-        <v>0.04601021828695906</v>
+        <v>0.03251529464790437</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5649857299391812</v>
+        <v>0.6594879334426338</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.808328960936592</v>
+        <v>4.104426063427297</v>
       </c>
       <c r="C25">
-        <v>0.2443942400878996</v>
+        <v>0.6506293026000947</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1771228621508669</v>
+        <v>0.0663681431863008</v>
       </c>
       <c r="F25">
-        <v>2.032291465139394</v>
+        <v>1.315969839564005</v>
       </c>
       <c r="G25">
-        <v>0.9629405974258418</v>
+        <v>0.7622463964658834</v>
       </c>
       <c r="H25">
-        <v>0.9736422070600526</v>
+        <v>0.4875503827925627</v>
       </c>
       <c r="I25">
-        <v>0.9098722713168783</v>
+        <v>0.4032948956888802</v>
       </c>
       <c r="J25">
-        <v>0.04620348317339662</v>
+        <v>0.03287746222365584</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5381918644929584</v>
+        <v>0.5508739762695853</v>
       </c>
       <c r="M25">
         <v>0</v>
